--- a/NEW HR/DONE/BRIZUELA, LENNIE.xlsx
+++ b/NEW HR/DONE/BRIZUELA, LENNIE.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="76">
   <si>
     <t>PERIOD</t>
   </si>
@@ -262,6 +262,9 @@
   </si>
   <si>
     <t>4/27, 5/2/2023</t>
+  </si>
+  <si>
+    <t>5/25,26/2023</t>
   </si>
 </sst>
 </file>
@@ -646,6 +649,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -658,20 +670,11 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1368,7 +1371,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1411,7 +1414,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1475,7 +1478,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1535,7 +1538,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1601,7 +1604,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1664,7 +1667,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1762,7 +1765,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1821,7 +1824,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1886,7 +1889,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1929,7 +1932,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2004,7 +2007,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2190,7 +2193,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2256,7 +2259,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2314,7 +2317,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2380,7 +2383,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2436,7 +2439,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2511,7 +2514,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2554,7 +2557,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2620,7 +2623,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2676,7 +2679,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2774,7 +2777,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2837,7 +2840,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3346,14 +3349,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="56"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -3364,14 +3367,14 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="54"/>
-      <c r="G3" s="55"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="59"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -3384,16 +3387,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="55" t="s">
+      <c r="F4" s="51" t="s">
         <v>72</v>
       </c>
-      <c r="G4" s="55"/>
+      <c r="G4" s="51"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="58"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="52"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -3419,18 +3422,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="59" t="s">
+      <c r="C7" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59" t="s">
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -5968,17 +5971,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -6014,9 +6017,9 @@
   <dimension ref="A2:K132"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="4050" topLeftCell="A18" activePane="bottomLeft"/>
+      <pane ySplit="4050" activePane="bottomLeft"/>
       <selection activeCell="B2" sqref="B2:C2"/>
-      <selection pane="bottomLeft" activeCell="A26" sqref="A26"/>
+      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6047,14 +6050,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="56"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -6068,14 +6071,14 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="54"/>
-      <c r="G3" s="55"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="59"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -6086,17 +6089,17 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="55" t="str">
+      <c r="F4" s="51" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F4:G4),"",'2018 LEAVE CREDITS'!F4:G4)</f>
         <v>CTO</v>
       </c>
-      <c r="G4" s="55"/>
+      <c r="G4" s="51"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="58"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="52"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -6122,18 +6125,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="59" t="s">
+      <c r="C7" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59" t="s">
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -6190,7 +6193,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -6553,7 +6556,9 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40"/>
-      <c r="B26" s="20"/>
+      <c r="B26" s="20" t="s">
+        <v>53</v>
+      </c>
       <c r="C26" s="13"/>
       <c r="D26" s="39"/>
       <c r="E26" s="9"/>
@@ -6562,10 +6567,14 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H26" s="39"/>
+      <c r="H26" s="39">
+        <v>2</v>
+      </c>
       <c r="I26" s="9"/>
       <c r="J26" s="11"/>
-      <c r="K26" s="20"/>
+      <c r="K26" s="20" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40"/>

--- a/NEW HR/DONE/BRIZUELA, LENNIE.xlsx
+++ b/NEW HR/DONE/BRIZUELA, LENNIE.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\DONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{209C92AC-60AC-44E4-B1E6-F32BD0E64AAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="2"/>
+    <workbookView xWindow="24" yWindow="48" windowWidth="23016" windowHeight="12312" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -27,7 +28,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'2017 LEAVE BALANCE'!$1:$9</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'2018 LEAVE CREDITS'!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="79">
   <si>
     <t>PERIOD</t>
   </si>
@@ -266,11 +267,20 @@
   <si>
     <t>5/25,26/2023</t>
   </si>
+  <si>
+    <t>5/30-31/2023</t>
+  </si>
+  <si>
+    <t>SL(14-0-0)</t>
+  </si>
+  <si>
+    <t>6/1-22/2023</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -649,15 +659,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -670,11 +671,20 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1371,7 +1381,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1414,7 +1424,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1478,7 +1488,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1538,7 +1548,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1604,7 +1614,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1667,7 +1677,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1765,7 +1775,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1824,7 +1834,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1889,7 +1899,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1932,7 +1942,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2007,7 +2017,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2193,7 +2203,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2259,7 +2269,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2317,7 +2327,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2383,7 +2393,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2439,7 +2449,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2514,7 +2524,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2557,7 +2567,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2623,7 +2633,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2679,7 +2689,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2777,7 +2787,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2840,7 +2850,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2889,7 +2899,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -2906,25 +2916,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table15" displayName="Table15" ref="A8:K137" totalsRowShown="0" headerRowDxfId="39" headerRowBorderDxfId="38" tableBorderDxfId="37" totalsRowBorderDxfId="36">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table15" displayName="Table15" ref="A8:K137" totalsRowShown="0" headerRowDxfId="39" headerRowBorderDxfId="38" tableBorderDxfId="37" totalsRowBorderDxfId="36">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="35"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="34"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="33"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="32"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="31">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="35"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="34"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="33"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="32"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="31">
       <calculatedColumnFormula>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="30"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="29">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="30"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="29">
       <calculatedColumnFormula>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="28"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="27">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="28"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="27">
       <calculatedColumnFormula>SUM(Table15[[EARNED ]])-SUM(Table15[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="26"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="25"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="26"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="25"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2936,25 +2946,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K132" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table1" displayName="Table1" ref="A8:K132" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2966,13 +2976,13 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="DAYS"/>
-    <tableColumn id="2" name="HOURS"/>
-    <tableColumn id="3" name="MINUTES"/>
-    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DAYS"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="HOURS"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="MINUTES"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2981,14 +2991,14 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3292,7 +3302,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3302,7 +3312,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3310,34 +3320,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K137"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="4050" topLeftCell="A72" activePane="bottomLeft"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="4056" topLeftCell="A78" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="K80" sqref="K80:K81"/>
+      <selection pane="bottomLeft" activeCell="D83" sqref="D83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3349,16 +3359,16 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="56"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3367,16 +3377,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="57"/>
-      <c r="G3" s="51"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="55"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="59"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3387,18 +3397,18 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="51" t="s">
+      <c r="F4" s="55" t="s">
         <v>72</v>
       </c>
-      <c r="G4" s="51"/>
+      <c r="G4" s="55"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J4" s="55"/>
+      <c r="K4" s="58"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3406,7 +3416,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3419,24 +3429,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53" t="s">
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="59"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3471,7 +3481,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3480,7 +3490,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])</f>
-        <v>55</v>
+        <v>56.25</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3490,12 +3500,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table15[[EARNED ]])-SUM(Table15[Absence Undertime  W/ Pay])</f>
-        <v>80</v>
+        <v>81.25</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
         <v>42</v>
       </c>
@@ -3517,7 +3527,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>43101</v>
       </c>
@@ -3537,7 +3547,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
         <v>43132</v>
       </c>
@@ -3557,7 +3567,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40">
         <v>43160</v>
       </c>
@@ -3577,7 +3587,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
         <v>43191</v>
       </c>
@@ -3597,7 +3607,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
         <v>43221</v>
       </c>
@@ -3617,7 +3627,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="40">
         <v>43252</v>
       </c>
@@ -3637,7 +3647,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="40">
         <v>43282</v>
       </c>
@@ -3657,7 +3667,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <v>43313</v>
       </c>
@@ -3677,7 +3687,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40">
         <v>43344</v>
       </c>
@@ -3697,7 +3707,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40">
         <v>43374</v>
       </c>
@@ -3717,7 +3727,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40">
         <v>43405</v>
       </c>
@@ -3737,7 +3747,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40">
         <v>43435</v>
       </c>
@@ -3763,7 +3773,7 @@
         <v>43460</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="40"/>
       <c r="B23" s="20" t="s">
         <v>56</v>
@@ -3783,7 +3793,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="48" t="s">
         <v>43</v>
       </c>
@@ -3801,7 +3811,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40">
         <v>43466</v>
       </c>
@@ -3821,7 +3831,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40">
         <v>43497</v>
       </c>
@@ -3841,7 +3851,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40">
         <v>43525</v>
       </c>
@@ -3861,7 +3871,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40">
         <v>43556</v>
       </c>
@@ -3881,7 +3891,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40">
         <v>43586</v>
       </c>
@@ -3901,7 +3911,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40">
         <v>43617</v>
       </c>
@@ -3921,7 +3931,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40">
         <v>43647</v>
       </c>
@@ -3941,7 +3951,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40">
         <v>43678</v>
       </c>
@@ -3961,7 +3971,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40">
         <v>43709</v>
       </c>
@@ -3981,7 +3991,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40">
         <v>43739</v>
       </c>
@@ -4007,7 +4017,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40"/>
       <c r="B35" s="20" t="s">
         <v>61</v>
@@ -4027,7 +4037,7 @@
         <v>43756</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="40">
         <v>43770</v>
       </c>
@@ -4047,7 +4057,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40">
         <v>43800</v>
       </c>
@@ -4071,7 +4081,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="48" t="s">
         <v>44</v>
       </c>
@@ -4089,7 +4099,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40">
         <v>43831</v>
       </c>
@@ -4109,7 +4119,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40">
         <v>43862</v>
       </c>
@@ -4133,7 +4143,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40">
         <v>43891</v>
       </c>
@@ -4153,7 +4163,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40">
         <v>43922</v>
       </c>
@@ -4173,7 +4183,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40">
         <v>43952</v>
       </c>
@@ -4193,7 +4203,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40">
         <v>43983</v>
       </c>
@@ -4213,7 +4223,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40">
         <v>44013</v>
       </c>
@@ -4233,7 +4243,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40">
         <v>44044</v>
       </c>
@@ -4253,7 +4263,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40">
         <v>44075</v>
       </c>
@@ -4273,7 +4283,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40">
         <v>44105</v>
       </c>
@@ -4297,7 +4307,7 @@
         <v>44123</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40"/>
       <c r="B49" s="20" t="s">
         <v>66</v>
@@ -4319,7 +4329,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40">
         <v>44136</v>
       </c>
@@ -4341,7 +4351,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40">
         <v>44166</v>
       </c>
@@ -4361,7 +4371,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="48" t="s">
         <v>45</v>
       </c>
@@ -4379,7 +4389,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40">
         <v>44197</v>
       </c>
@@ -4399,7 +4409,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40">
         <v>44228</v>
       </c>
@@ -4419,7 +4429,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40">
         <v>44256</v>
       </c>
@@ -4439,7 +4449,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40">
         <v>44287</v>
       </c>
@@ -4459,7 +4469,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40">
         <v>44317</v>
       </c>
@@ -4479,7 +4489,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40">
         <v>44348</v>
       </c>
@@ -4499,7 +4509,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40">
         <v>44378</v>
       </c>
@@ -4519,7 +4529,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40">
         <v>44409</v>
       </c>
@@ -4543,7 +4553,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40">
         <v>44440</v>
       </c>
@@ -4563,7 +4573,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40">
         <v>44470</v>
       </c>
@@ -4583,7 +4593,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40">
         <v>44501</v>
       </c>
@@ -4603,7 +4613,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40">
         <v>44531</v>
       </c>
@@ -4627,7 +4637,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="48" t="s">
         <v>46</v>
       </c>
@@ -4645,7 +4655,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40">
         <v>44562</v>
       </c>
@@ -4665,7 +4675,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40">
         <v>44593</v>
       </c>
@@ -4685,7 +4695,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40">
         <v>44621</v>
       </c>
@@ -4705,7 +4715,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40">
         <v>44652</v>
       </c>
@@ -4725,7 +4735,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40">
         <v>44682</v>
       </c>
@@ -4745,7 +4755,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40">
         <v>44713</v>
       </c>
@@ -4765,7 +4775,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40">
         <v>44743</v>
       </c>
@@ -4785,7 +4795,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40">
         <v>44774</v>
       </c>
@@ -4805,7 +4815,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40">
         <v>44805</v>
       </c>
@@ -4825,7 +4835,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40">
         <v>44835</v>
       </c>
@@ -4845,7 +4855,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40">
         <v>44866</v>
       </c>
@@ -4865,7 +4875,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40">
         <v>44896</v>
       </c>
@@ -4889,7 +4899,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="48" t="s">
         <v>47</v>
       </c>
@@ -4907,7 +4917,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40">
         <v>44927</v>
       </c>
@@ -4927,7 +4937,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40">
         <v>44958</v>
       </c>
@@ -4947,7 +4957,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40">
         <v>44986</v>
       </c>
@@ -4967,7 +4977,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="49"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40">
         <v>45017</v>
       </c>
@@ -4987,25 +4997,27 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40">
         <v>45047</v>
       </c>
       <c r="B83" s="20"/>
-      <c r="C83" s="13"/>
+      <c r="C83" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D83" s="39"/>
       <c r="E83" s="9"/>
       <c r="F83" s="20"/>
-      <c r="G83" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G83" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H83" s="39"/>
       <c r="I83" s="9"/>
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40">
         <v>45078</v>
       </c>
@@ -5023,7 +5035,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40">
         <v>45108</v>
       </c>
@@ -5041,7 +5053,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40">
         <v>45139</v>
       </c>
@@ -5059,7 +5071,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40">
         <v>45170</v>
       </c>
@@ -5077,7 +5089,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40">
         <v>45200</v>
       </c>
@@ -5095,7 +5107,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40">
         <v>45231</v>
       </c>
@@ -5113,7 +5125,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40">
         <v>45261</v>
       </c>
@@ -5131,7 +5143,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40">
         <v>45292</v>
       </c>
@@ -5149,7 +5161,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40">
         <v>45323</v>
       </c>
@@ -5167,7 +5179,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40">
         <v>45352</v>
       </c>
@@ -5185,7 +5197,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40">
         <v>45383</v>
       </c>
@@ -5203,7 +5215,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40">
         <v>45413</v>
       </c>
@@ -5221,7 +5233,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40">
         <v>45444</v>
       </c>
@@ -5239,7 +5251,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40">
         <v>45474</v>
       </c>
@@ -5257,7 +5269,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40">
         <v>45505</v>
       </c>
@@ -5275,7 +5287,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40">
         <v>45536</v>
       </c>
@@ -5293,7 +5305,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40">
         <v>45566</v>
       </c>
@@ -5311,7 +5323,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40">
         <v>45597</v>
       </c>
@@ -5329,7 +5341,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40">
         <v>45627</v>
       </c>
@@ -5347,7 +5359,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40">
         <v>45658</v>
       </c>
@@ -5365,7 +5377,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40">
         <v>45689</v>
       </c>
@@ -5383,7 +5395,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40">
         <v>45717</v>
       </c>
@@ -5401,7 +5413,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40">
         <v>45748</v>
       </c>
@@ -5419,7 +5431,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40">
         <v>45778</v>
       </c>
@@ -5437,7 +5449,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40">
         <v>45809</v>
       </c>
@@ -5455,7 +5467,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40">
         <v>45839</v>
       </c>
@@ -5473,7 +5485,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40">
         <v>45870</v>
       </c>
@@ -5491,7 +5503,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40">
         <v>45901</v>
       </c>
@@ -5509,7 +5521,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40">
         <v>45931</v>
       </c>
@@ -5527,7 +5539,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40">
         <v>45962</v>
       </c>
@@ -5545,7 +5557,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40">
         <v>45992</v>
       </c>
@@ -5563,7 +5575,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40">
         <v>46023</v>
       </c>
@@ -5581,7 +5593,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40">
         <v>46054</v>
       </c>
@@ -5599,7 +5611,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40">
         <v>46082</v>
       </c>
@@ -5617,7 +5629,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40">
         <v>46113</v>
       </c>
@@ -5635,7 +5647,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40">
         <v>46143</v>
       </c>
@@ -5653,7 +5665,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40">
         <v>46174</v>
       </c>
@@ -5671,7 +5683,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40">
         <v>46204</v>
       </c>
@@ -5689,7 +5701,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40">
         <v>46235</v>
       </c>
@@ -5707,7 +5719,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40">
         <v>46266</v>
       </c>
@@ -5725,7 +5737,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40">
         <v>46296</v>
       </c>
@@ -5743,7 +5755,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40">
         <v>46327</v>
       </c>
@@ -5761,7 +5773,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40">
         <v>46357</v>
       </c>
@@ -5779,7 +5791,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40">
         <v>46388</v>
       </c>
@@ -5797,7 +5809,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40">
         <v>46419</v>
       </c>
@@ -5815,7 +5827,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40">
         <v>46447</v>
       </c>
@@ -5833,7 +5845,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="40">
         <v>46478</v>
       </c>
@@ -5851,7 +5863,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="40">
         <v>46508</v>
       </c>
@@ -5869,7 +5881,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="40">
         <v>46539</v>
       </c>
@@ -5887,7 +5899,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="40">
         <v>46569</v>
       </c>
@@ -5905,7 +5917,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="40"/>
       <c r="B134" s="20"/>
       <c r="C134" s="13"/>
@@ -5921,7 +5933,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="40"/>
       <c r="B135" s="20"/>
       <c r="C135" s="13"/>
@@ -5937,7 +5949,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="40"/>
       <c r="B136" s="20"/>
       <c r="C136" s="13"/>
@@ -5953,7 +5965,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="41"/>
       <c r="B137" s="15"/>
       <c r="C137" s="42"/>
@@ -5971,23 +5983,23 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6010,34 +6022,34 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K132"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="4050" activePane="bottomLeft"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="4056" topLeftCell="A22" activePane="bottomLeft"/>
       <selection activeCell="B2" sqref="B2:C2"/>
-      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomLeft" activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -6050,16 +6062,16 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="56"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -6071,16 +6083,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="57"/>
-      <c r="G3" s="51"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="55"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="59"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -6089,19 +6101,19 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="51" t="str">
+      <c r="F4" s="55" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F4:G4),"",'2018 LEAVE CREDITS'!F4:G4)</f>
         <v>CTO</v>
       </c>
-      <c r="G4" s="51"/>
+      <c r="G4" s="55"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J4" s="55"/>
+      <c r="K4" s="58"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -6109,7 +6121,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -6122,24 +6134,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53" t="s">
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="59"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -6174,7 +6186,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -6193,12 +6205,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
         <v>42</v>
       </c>
@@ -6220,7 +6232,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>43191</v>
       </c>
@@ -6244,7 +6256,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
         <v>43313</v>
       </c>
@@ -6268,7 +6280,7 @@
         <v>43319</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40">
         <v>43374</v>
       </c>
@@ -6292,7 +6304,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="48" t="s">
         <v>43</v>
       </c>
@@ -6310,7 +6322,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
         <v>43497</v>
       </c>
@@ -6334,7 +6346,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="41">
         <v>43647</v>
       </c>
@@ -6358,7 +6370,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="48" t="s">
         <v>44</v>
       </c>
@@ -6376,7 +6388,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <v>44105</v>
       </c>
@@ -6400,7 +6412,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="48" t="s">
         <v>46</v>
       </c>
@@ -6418,7 +6430,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40">
         <v>44774</v>
       </c>
@@ -6440,7 +6452,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="48" t="s">
         <v>47</v>
       </c>
@@ -6458,7 +6470,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40">
         <v>44958</v>
       </c>
@@ -6482,7 +6494,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="40">
         <v>44986</v>
       </c>
@@ -6506,7 +6518,7 @@
         <v>45002</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40">
         <v>45017</v>
       </c>
@@ -6530,7 +6542,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40">
         <v>45047</v>
       </c>
@@ -6554,7 +6566,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40"/>
       <c r="B26" s="20" t="s">
         <v>53</v>
@@ -6576,9 +6588,13 @@
         <v>75</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="40"/>
-      <c r="B27" s="20"/>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" s="40">
+        <v>45100</v>
+      </c>
+      <c r="B27" s="20" t="s">
+        <v>53</v>
+      </c>
       <c r="C27" s="13"/>
       <c r="D27" s="39"/>
       <c r="E27" s="9"/>
@@ -6587,14 +6603,20 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H27" s="39"/>
+      <c r="H27" s="39">
+        <v>2</v>
+      </c>
       <c r="I27" s="9"/>
       <c r="J27" s="11"/>
-      <c r="K27" s="20"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K27" s="20" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40"/>
-      <c r="B28" s="20"/>
+      <c r="B28" s="20" t="s">
+        <v>77</v>
+      </c>
       <c r="C28" s="13"/>
       <c r="D28" s="39"/>
       <c r="E28" s="9"/>
@@ -6603,12 +6625,16 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H28" s="39"/>
+      <c r="H28" s="39">
+        <v>14</v>
+      </c>
       <c r="I28" s="9"/>
       <c r="J28" s="11"/>
-      <c r="K28" s="20"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K28" s="20" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40"/>
       <c r="B29" s="20"/>
       <c r="C29" s="13"/>
@@ -6624,7 +6650,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40"/>
       <c r="B30" s="20"/>
       <c r="C30" s="13"/>
@@ -6640,7 +6666,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40"/>
       <c r="B31" s="20"/>
       <c r="C31" s="13"/>
@@ -6656,7 +6682,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40"/>
       <c r="B32" s="20"/>
       <c r="C32" s="13"/>
@@ -6672,7 +6698,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40"/>
       <c r="B33" s="20"/>
       <c r="C33" s="13"/>
@@ -6688,7 +6714,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40"/>
       <c r="B34" s="20"/>
       <c r="C34" s="13"/>
@@ -6704,7 +6730,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40"/>
       <c r="B35" s="20"/>
       <c r="C35" s="13"/>
@@ -6720,7 +6746,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="40"/>
       <c r="B36" s="20"/>
       <c r="C36" s="13"/>
@@ -6736,7 +6762,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40"/>
       <c r="B37" s="20"/>
       <c r="C37" s="13"/>
@@ -6752,7 +6778,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40"/>
       <c r="B38" s="20"/>
       <c r="C38" s="13"/>
@@ -6768,7 +6794,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40"/>
       <c r="B39" s="20"/>
       <c r="C39" s="13"/>
@@ -6784,7 +6810,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40"/>
       <c r="B40" s="20"/>
       <c r="C40" s="13"/>
@@ -6800,7 +6826,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40"/>
       <c r="B41" s="20"/>
       <c r="C41" s="13"/>
@@ -6816,7 +6842,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40"/>
       <c r="B42" s="20"/>
       <c r="C42" s="13"/>
@@ -6832,7 +6858,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40"/>
       <c r="B43" s="20"/>
       <c r="C43" s="13"/>
@@ -6848,7 +6874,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40"/>
       <c r="B44" s="20"/>
       <c r="C44" s="13"/>
@@ -6864,7 +6890,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40"/>
       <c r="B45" s="20"/>
       <c r="C45" s="13"/>
@@ -6880,7 +6906,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40"/>
       <c r="B46" s="20"/>
       <c r="C46" s="13"/>
@@ -6896,7 +6922,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40"/>
       <c r="B47" s="20"/>
       <c r="C47" s="13"/>
@@ -6912,7 +6938,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40"/>
       <c r="B48" s="20"/>
       <c r="C48" s="13"/>
@@ -6928,7 +6954,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40"/>
       <c r="B49" s="20"/>
       <c r="C49" s="13"/>
@@ -6944,7 +6970,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40"/>
       <c r="B50" s="20"/>
       <c r="C50" s="13"/>
@@ -6960,7 +6986,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40"/>
       <c r="B51" s="20"/>
       <c r="C51" s="13"/>
@@ -6976,7 +7002,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40"/>
       <c r="B52" s="20"/>
       <c r="C52" s="13"/>
@@ -6992,7 +7018,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40"/>
       <c r="B53" s="20"/>
       <c r="C53" s="13"/>
@@ -7008,7 +7034,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40"/>
       <c r="B54" s="20"/>
       <c r="C54" s="13"/>
@@ -7024,7 +7050,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40"/>
       <c r="B55" s="20"/>
       <c r="C55" s="13"/>
@@ -7040,7 +7066,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40"/>
       <c r="B56" s="20"/>
       <c r="C56" s="13"/>
@@ -7056,7 +7082,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40"/>
       <c r="B57" s="20"/>
       <c r="C57" s="13"/>
@@ -7072,7 +7098,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40"/>
       <c r="B58" s="20"/>
       <c r="C58" s="13"/>
@@ -7088,7 +7114,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40"/>
       <c r="B59" s="20"/>
       <c r="C59" s="13"/>
@@ -7104,7 +7130,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40"/>
       <c r="B60" s="20"/>
       <c r="C60" s="13"/>
@@ -7120,7 +7146,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40"/>
       <c r="B61" s="20"/>
       <c r="C61" s="13"/>
@@ -7136,7 +7162,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40"/>
       <c r="B62" s="20"/>
       <c r="C62" s="13"/>
@@ -7152,7 +7178,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40"/>
       <c r="B63" s="20"/>
       <c r="C63" s="13"/>
@@ -7168,7 +7194,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40"/>
       <c r="B64" s="20"/>
       <c r="C64" s="13"/>
@@ -7184,7 +7210,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40"/>
       <c r="B65" s="20"/>
       <c r="C65" s="13"/>
@@ -7200,7 +7226,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40"/>
       <c r="B66" s="20"/>
       <c r="C66" s="13"/>
@@ -7216,7 +7242,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40"/>
       <c r="B67" s="20"/>
       <c r="C67" s="13"/>
@@ -7232,7 +7258,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40"/>
       <c r="B68" s="20"/>
       <c r="C68" s="13"/>
@@ -7248,7 +7274,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40"/>
       <c r="B69" s="20"/>
       <c r="C69" s="13"/>
@@ -7264,7 +7290,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40"/>
       <c r="B70" s="20"/>
       <c r="C70" s="13"/>
@@ -7280,7 +7306,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40"/>
       <c r="B71" s="20"/>
       <c r="C71" s="13"/>
@@ -7296,7 +7322,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40"/>
       <c r="B72" s="20"/>
       <c r="C72" s="13"/>
@@ -7312,7 +7338,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40"/>
       <c r="B73" s="20"/>
       <c r="C73" s="13"/>
@@ -7328,7 +7354,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40"/>
       <c r="B74" s="20"/>
       <c r="C74" s="13"/>
@@ -7344,7 +7370,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40"/>
       <c r="B75" s="20"/>
       <c r="C75" s="13"/>
@@ -7360,7 +7386,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40"/>
       <c r="B76" s="20"/>
       <c r="C76" s="13"/>
@@ -7376,7 +7402,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40"/>
       <c r="B77" s="20"/>
       <c r="C77" s="13"/>
@@ -7392,7 +7418,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40"/>
       <c r="B78" s="20"/>
       <c r="C78" s="13"/>
@@ -7408,7 +7434,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40"/>
       <c r="B79" s="20"/>
       <c r="C79" s="13"/>
@@ -7424,7 +7450,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40"/>
       <c r="B80" s="20"/>
       <c r="C80" s="13"/>
@@ -7440,7 +7466,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40"/>
       <c r="B81" s="20"/>
       <c r="C81" s="13"/>
@@ -7456,7 +7482,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40"/>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
@@ -7472,7 +7498,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40"/>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
@@ -7488,7 +7514,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40"/>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
@@ -7504,7 +7530,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40"/>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
@@ -7520,7 +7546,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40"/>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
@@ -7536,7 +7562,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40"/>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
@@ -7552,7 +7578,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40"/>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -7568,7 +7594,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40"/>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -7584,7 +7610,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40"/>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -7600,7 +7626,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40"/>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -7616,7 +7642,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40"/>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -7632,7 +7658,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40"/>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -7648,7 +7674,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40"/>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -7664,7 +7690,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40"/>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -7680,7 +7706,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40"/>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -7696,7 +7722,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40"/>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -7712,7 +7738,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40"/>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -7728,7 +7754,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40"/>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -7744,7 +7770,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40"/>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -7760,7 +7786,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40"/>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -7776,7 +7802,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40"/>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -7792,7 +7818,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40"/>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -7808,7 +7834,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40"/>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -7824,7 +7850,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40"/>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -7840,7 +7866,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40"/>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -7856,7 +7882,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40"/>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -7872,7 +7898,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40"/>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -7888,7 +7914,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40"/>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -7904,7 +7930,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40"/>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -7920,7 +7946,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40"/>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -7936,7 +7962,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -7952,7 +7978,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40"/>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -7968,7 +7994,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -7984,7 +8010,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40"/>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -8000,7 +8026,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40"/>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -8016,7 +8042,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40"/>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -8032,7 +8058,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40"/>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -8048,7 +8074,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40"/>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -8064,7 +8090,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -8080,7 +8106,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40"/>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -8096,7 +8122,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40"/>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -8112,7 +8138,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40"/>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -8128,7 +8154,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40"/>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -8144,7 +8170,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -8160,7 +8186,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -8176,7 +8202,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -8192,7 +8218,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -8208,7 +8234,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40"/>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -8224,7 +8250,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="40"/>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -8240,7 +8266,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="40"/>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
@@ -8256,7 +8282,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="41"/>
       <c r="B132" s="15"/>
       <c r="C132" s="42"/>
@@ -8287,10 +8313,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -8313,7 +8339,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -8321,21 +8347,21 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="60" t="s">
         <v>33</v>
       </c>
@@ -8348,7 +8374,7 @@
       <c r="K1" s="61"/>
       <c r="L1" s="61"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -8377,7 +8403,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>117.004</v>
       </c>
@@ -8401,17 +8427,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -8432,7 +8458,7 @@
       <c r="K6" s="61"/>
       <c r="L6" s="61"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -8459,7 +8485,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -8485,7 +8511,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -8511,7 +8537,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -8537,7 +8563,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -8563,7 +8589,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -8589,7 +8615,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -8615,7 +8641,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -8641,7 +8667,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -8661,7 +8687,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -8681,7 +8707,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -8701,7 +8727,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -8722,7 +8748,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -8743,7 +8769,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -8764,7 +8790,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -8785,7 +8811,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -8806,7 +8832,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -8827,7 +8853,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -8848,7 +8874,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -8869,7 +8895,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -8890,7 +8916,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -8911,7 +8937,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -8932,7 +8958,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -8953,7 +8979,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -8974,7 +9000,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -8995,7 +9021,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -9016,7 +9042,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -9037,7 +9063,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -9058,7 +9084,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -9079,7 +9105,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -9100,7 +9126,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -9121,7 +9147,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -9130,7 +9156,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -9139,7 +9165,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -9148,7 +9174,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -9157,7 +9183,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -9166,7 +9192,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -9175,7 +9201,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -9184,7 +9210,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -9193,7 +9219,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -9202,7 +9228,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -9211,7 +9237,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -9220,7 +9246,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -9229,7 +9255,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -9238,7 +9264,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -9247,7 +9273,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -9256,7 +9282,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -9265,7 +9291,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -9274,7 +9300,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -9283,7 +9309,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -9292,7 +9318,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -9301,7 +9327,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -9310,7 +9336,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -9319,7 +9345,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -9328,7 +9354,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -9337,7 +9363,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -9346,7 +9372,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -9355,7 +9381,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -9364,7 +9390,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -9373,7 +9399,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -9382,7 +9408,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/NEW HR/DONE/BRIZUELA, LENNIE.xlsx
+++ b/NEW HR/DONE/BRIZUELA, LENNIE.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\DONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{209C92AC-60AC-44E4-B1E6-F32BD0E64AAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24" yWindow="48" windowWidth="23016" windowHeight="12312" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30" yWindow="45" windowWidth="23010" windowHeight="12315" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -28,7 +27,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'2017 LEAVE BALANCE'!$1:$9</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'2018 LEAVE CREDITS'!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="81">
   <si>
     <t>PERIOD</t>
   </si>
@@ -276,11 +275,17 @@
   <si>
     <t>6/1-22/2023</t>
   </si>
+  <si>
+    <t>SL(7-0-0)</t>
+  </si>
+  <si>
+    <t>7/3,10,11,14,19,25,31/2023</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -659,6 +664,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -671,20 +685,11 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1381,7 +1386,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1424,7 +1429,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1488,7 +1493,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1548,7 +1553,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1614,7 +1619,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1677,7 +1682,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1775,7 +1780,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1834,7 +1839,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1899,7 +1904,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1942,7 +1947,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2017,7 +2022,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2203,7 +2208,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2269,7 +2274,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2327,7 +2332,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2393,7 +2398,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2449,7 +2454,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2524,7 +2529,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2567,7 +2572,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2633,7 +2638,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2689,7 +2694,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2787,7 +2792,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2850,7 +2855,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2899,7 +2904,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -2916,25 +2921,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table15" displayName="Table15" ref="A8:K137" totalsRowShown="0" headerRowDxfId="39" headerRowBorderDxfId="38" tableBorderDxfId="37" totalsRowBorderDxfId="36">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table15" displayName="Table15" ref="A8:K137" totalsRowShown="0" headerRowDxfId="39" headerRowBorderDxfId="38" tableBorderDxfId="37" totalsRowBorderDxfId="36">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="35"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="34"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="33"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="32"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="31">
+    <tableColumn id="1" name="PERIOD" dataDxfId="35"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="34"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="33"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="32"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="31">
       <calculatedColumnFormula>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="30"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="29">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="30"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="29">
       <calculatedColumnFormula>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="28"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="27">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="28"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="27">
       <calculatedColumnFormula>SUM(Table15[[EARNED ]])-SUM(Table15[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="26"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="25"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="26"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="25"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2946,25 +2951,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table1" displayName="Table1" ref="A8:K132" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K132" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2976,13 +2981,13 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DAYS"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="HOURS"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="MINUTES"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" name="DAYS"/>
+    <tableColumn id="2" name="HOURS"/>
+    <tableColumn id="3" name="MINUTES"/>
+    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2991,14 +2996,14 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3302,7 +3307,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3312,7 +3317,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3320,34 +3325,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K137"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="4056" topLeftCell="A78" activePane="bottomLeft"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="4050" topLeftCell="A78" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="D83" sqref="D83"/>
+      <selection pane="bottomLeft" activeCell="H93" sqref="H93"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3359,16 +3364,16 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J2" s="55"/>
+      <c r="K2" s="56"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3377,16 +3382,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="54"/>
-      <c r="G3" s="55"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J3" s="58"/>
+      <c r="K3" s="59"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3397,18 +3402,18 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="55" t="s">
+      <c r="F4" s="51" t="s">
         <v>72</v>
       </c>
-      <c r="G4" s="55"/>
+      <c r="G4" s="51"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="58"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J4" s="51"/>
+      <c r="K4" s="52"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3416,7 +3421,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3429,24 +3434,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="59" t="s">
+      <c r="C7" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59" t="s">
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3481,7 +3486,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3490,7 +3495,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])</f>
-        <v>56.25</v>
+        <v>58.75</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3500,12 +3505,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table15[[EARNED ]])-SUM(Table15[Absence Undertime  W/ Pay])</f>
-        <v>81.25</v>
+        <v>83.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>42</v>
       </c>
@@ -3527,7 +3532,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>43101</v>
       </c>
@@ -3547,7 +3552,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>43132</v>
       </c>
@@ -3567,7 +3572,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>43160</v>
       </c>
@@ -3587,7 +3592,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>43191</v>
       </c>
@@ -3607,7 +3612,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>43221</v>
       </c>
@@ -3627,7 +3632,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <v>43252</v>
       </c>
@@ -3647,7 +3652,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
         <v>43282</v>
       </c>
@@ -3667,7 +3672,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <v>43313</v>
       </c>
@@ -3687,7 +3692,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <v>43344</v>
       </c>
@@ -3707,7 +3712,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <v>43374</v>
       </c>
@@ -3727,7 +3732,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <v>43405</v>
       </c>
@@ -3747,7 +3752,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <v>43435</v>
       </c>
@@ -3773,7 +3778,7 @@
         <v>43460</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40"/>
       <c r="B23" s="20" t="s">
         <v>56</v>
@@ -3793,7 +3798,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="48" t="s">
         <v>43</v>
       </c>
@@ -3811,7 +3816,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <v>43466</v>
       </c>
@@ -3831,7 +3836,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
         <v>43497</v>
       </c>
@@ -3851,7 +3856,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <v>43525</v>
       </c>
@@ -3871,7 +3876,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
         <v>43556</v>
       </c>
@@ -3891,7 +3896,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <v>43586</v>
       </c>
@@ -3911,7 +3916,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40">
         <v>43617</v>
       </c>
@@ -3931,7 +3936,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
         <v>43647</v>
       </c>
@@ -3951,7 +3956,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
         <v>43678</v>
       </c>
@@ -3971,7 +3976,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <v>43709</v>
       </c>
@@ -3991,7 +3996,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
         <v>43739</v>
       </c>
@@ -4017,7 +4022,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40"/>
       <c r="B35" s="20" t="s">
         <v>61</v>
@@ -4037,7 +4042,7 @@
         <v>43756</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40">
         <v>43770</v>
       </c>
@@ -4057,7 +4062,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
         <v>43800</v>
       </c>
@@ -4081,7 +4086,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="48" t="s">
         <v>44</v>
       </c>
@@ -4099,7 +4104,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
         <v>43831</v>
       </c>
@@ -4119,7 +4124,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <v>43862</v>
       </c>
@@ -4143,7 +4148,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40">
         <v>43891</v>
       </c>
@@ -4163,7 +4168,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
         <v>43922</v>
       </c>
@@ -4183,7 +4188,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
         <v>43952</v>
       </c>
@@ -4203,7 +4208,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
         <v>43983</v>
       </c>
@@ -4223,7 +4228,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
         <v>44013</v>
       </c>
@@ -4243,7 +4248,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
         <v>44044</v>
       </c>
@@ -4263,7 +4268,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
         <v>44075</v>
       </c>
@@ -4283,7 +4288,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
         <v>44105</v>
       </c>
@@ -4307,7 +4312,7 @@
         <v>44123</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40"/>
       <c r="B49" s="20" t="s">
         <v>66</v>
@@ -4329,7 +4334,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
         <v>44136</v>
       </c>
@@ -4351,7 +4356,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
         <v>44166</v>
       </c>
@@ -4371,7 +4376,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="48" t="s">
         <v>45</v>
       </c>
@@ -4389,7 +4394,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40">
         <v>44197</v>
       </c>
@@ -4409,7 +4414,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
         <v>44228</v>
       </c>
@@ -4429,7 +4434,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
         <v>44256</v>
       </c>
@@ -4449,7 +4454,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
         <v>44287</v>
       </c>
@@ -4469,7 +4474,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
         <v>44317</v>
       </c>
@@ -4489,7 +4494,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
         <v>44348</v>
       </c>
@@ -4509,7 +4514,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
         <v>44378</v>
       </c>
@@ -4529,7 +4534,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
         <v>44409</v>
       </c>
@@ -4553,7 +4558,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
         <v>44440</v>
       </c>
@@ -4573,7 +4578,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40">
         <v>44470</v>
       </c>
@@ -4593,7 +4598,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40">
         <v>44501</v>
       </c>
@@ -4613,7 +4618,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
         <v>44531</v>
       </c>
@@ -4637,7 +4642,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="48" t="s">
         <v>46</v>
       </c>
@@ -4655,7 +4660,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
         <v>44562</v>
       </c>
@@ -4675,7 +4680,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
         <v>44593</v>
       </c>
@@ -4695,7 +4700,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
         <v>44621</v>
       </c>
@@ -4715,7 +4720,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
         <v>44652</v>
       </c>
@@ -4735,7 +4740,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
         <v>44682</v>
       </c>
@@ -4755,7 +4760,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
         <v>44713</v>
       </c>
@@ -4775,7 +4780,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
         <v>44743</v>
       </c>
@@ -4795,7 +4800,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40">
         <v>44774</v>
       </c>
@@ -4815,7 +4820,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
         <v>44805</v>
       </c>
@@ -4835,7 +4840,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40">
         <v>44835</v>
       </c>
@@ -4855,7 +4860,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40">
         <v>44866</v>
       </c>
@@ -4875,7 +4880,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
         <v>44896</v>
       </c>
@@ -4899,7 +4904,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="48" t="s">
         <v>47</v>
       </c>
@@ -4917,7 +4922,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
         <v>44927</v>
       </c>
@@ -4937,7 +4942,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
         <v>44958</v>
       </c>
@@ -4957,7 +4962,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40">
         <v>44986</v>
       </c>
@@ -4977,7 +4982,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="49"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40">
         <v>45017</v>
       </c>
@@ -4997,7 +5002,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
         <v>45047</v>
       </c>
@@ -5017,43 +5022,47 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
         <v>45078</v>
       </c>
       <c r="B84" s="20"/>
-      <c r="C84" s="13"/>
+      <c r="C84" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D84" s="39"/>
       <c r="E84" s="9"/>
       <c r="F84" s="20"/>
-      <c r="G84" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G84" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H84" s="39"/>
       <c r="I84" s="9"/>
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
         <v>45108</v>
       </c>
       <c r="B85" s="20"/>
-      <c r="C85" s="13"/>
+      <c r="C85" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D85" s="39"/>
       <c r="E85" s="9"/>
       <c r="F85" s="20"/>
-      <c r="G85" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G85" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H85" s="39"/>
       <c r="I85" s="9"/>
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
         <v>45139</v>
       </c>
@@ -5071,7 +5080,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40">
         <v>45170</v>
       </c>
@@ -5089,7 +5098,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
         <v>45200</v>
       </c>
@@ -5107,7 +5116,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40">
         <v>45231</v>
       </c>
@@ -5125,7 +5134,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
         <v>45261</v>
       </c>
@@ -5143,7 +5152,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40">
         <v>45292</v>
       </c>
@@ -5161,7 +5170,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40">
         <v>45323</v>
       </c>
@@ -5179,7 +5188,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40">
         <v>45352</v>
       </c>
@@ -5197,7 +5206,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40">
         <v>45383</v>
       </c>
@@ -5215,7 +5224,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40">
         <v>45413</v>
       </c>
@@ -5233,7 +5242,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40">
         <v>45444</v>
       </c>
@@ -5251,7 +5260,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40">
         <v>45474</v>
       </c>
@@ -5269,7 +5278,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40">
         <v>45505</v>
       </c>
@@ -5287,7 +5296,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40">
         <v>45536</v>
       </c>
@@ -5305,7 +5314,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40">
         <v>45566</v>
       </c>
@@ -5323,7 +5332,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40">
         <v>45597</v>
       </c>
@@ -5341,7 +5350,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40">
         <v>45627</v>
       </c>
@@ -5359,7 +5368,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40">
         <v>45658</v>
       </c>
@@ -5377,7 +5386,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40">
         <v>45689</v>
       </c>
@@ -5395,7 +5404,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40">
         <v>45717</v>
       </c>
@@ -5413,7 +5422,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40">
         <v>45748</v>
       </c>
@@ -5431,7 +5440,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40">
         <v>45778</v>
       </c>
@@ -5449,7 +5458,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40">
         <v>45809</v>
       </c>
@@ -5467,7 +5476,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40">
         <v>45839</v>
       </c>
@@ -5485,7 +5494,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40">
         <v>45870</v>
       </c>
@@ -5503,7 +5512,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40">
         <v>45901</v>
       </c>
@@ -5521,7 +5530,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40">
         <v>45931</v>
       </c>
@@ -5539,7 +5548,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40">
         <v>45962</v>
       </c>
@@ -5557,7 +5566,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40">
         <v>45992</v>
       </c>
@@ -5575,7 +5584,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40">
         <v>46023</v>
       </c>
@@ -5593,7 +5602,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40">
         <v>46054</v>
       </c>
@@ -5611,7 +5620,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40">
         <v>46082</v>
       </c>
@@ -5629,7 +5638,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40">
         <v>46113</v>
       </c>
@@ -5647,7 +5656,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40">
         <v>46143</v>
       </c>
@@ -5665,7 +5674,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40">
         <v>46174</v>
       </c>
@@ -5683,7 +5692,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40">
         <v>46204</v>
       </c>
@@ -5701,7 +5710,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40">
         <v>46235</v>
       </c>
@@ -5719,7 +5728,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40">
         <v>46266</v>
       </c>
@@ -5737,7 +5746,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40">
         <v>46296</v>
       </c>
@@ -5755,7 +5764,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40">
         <v>46327</v>
       </c>
@@ -5773,7 +5782,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40">
         <v>46357</v>
       </c>
@@ -5791,7 +5800,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40">
         <v>46388</v>
       </c>
@@ -5809,7 +5818,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40">
         <v>46419</v>
       </c>
@@ -5827,7 +5836,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40">
         <v>46447</v>
       </c>
@@ -5845,7 +5854,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40">
         <v>46478</v>
       </c>
@@ -5863,7 +5872,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40">
         <v>46508</v>
       </c>
@@ -5881,7 +5890,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40">
         <v>46539</v>
       </c>
@@ -5899,7 +5908,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40">
         <v>46569</v>
       </c>
@@ -5917,7 +5926,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40"/>
       <c r="B134" s="20"/>
       <c r="C134" s="13"/>
@@ -5933,7 +5942,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="40"/>
       <c r="B135" s="20"/>
       <c r="C135" s="13"/>
@@ -5949,7 +5958,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="40"/>
       <c r="B136" s="20"/>
       <c r="C136" s="13"/>
@@ -5965,7 +5974,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="41"/>
       <c r="B137" s="15"/>
       <c r="C137" s="42"/>
@@ -5983,23 +5992,23 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6022,34 +6031,34 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K132"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="4056" topLeftCell="A22" activePane="bottomLeft"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="4050" topLeftCell="A22" activePane="bottomLeft"/>
       <selection activeCell="B2" sqref="B2:C2"/>
-      <selection pane="bottomLeft" activeCell="B29" sqref="B29"/>
+      <selection pane="bottomLeft" activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -6062,16 +6071,16 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J2" s="55"/>
+      <c r="K2" s="56"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -6083,16 +6092,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="54"/>
-      <c r="G3" s="55"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J3" s="58"/>
+      <c r="K3" s="59"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -6101,19 +6110,19 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="55" t="str">
+      <c r="F4" s="51" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F4:G4),"",'2018 LEAVE CREDITS'!F4:G4)</f>
         <v>CTO</v>
       </c>
-      <c r="G4" s="55"/>
+      <c r="G4" s="51"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="58"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J4" s="51"/>
+      <c r="K4" s="52"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -6121,7 +6130,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -6134,24 +6143,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="59" t="s">
+      <c r="C7" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59" t="s">
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -6186,7 +6195,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -6205,12 +6214,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>42</v>
       </c>
@@ -6232,7 +6241,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>43191</v>
       </c>
@@ -6256,7 +6265,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>43313</v>
       </c>
@@ -6280,7 +6289,7 @@
         <v>43319</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>43374</v>
       </c>
@@ -6304,7 +6313,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="48" t="s">
         <v>43</v>
       </c>
@@ -6322,7 +6331,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>43497</v>
       </c>
@@ -6346,7 +6355,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="41">
         <v>43647</v>
       </c>
@@ -6370,7 +6379,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="48" t="s">
         <v>44</v>
       </c>
@@ -6388,7 +6397,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <v>44105</v>
       </c>
@@ -6412,7 +6421,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="48" t="s">
         <v>46</v>
       </c>
@@ -6430,7 +6439,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <v>44774</v>
       </c>
@@ -6452,7 +6461,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="48" t="s">
         <v>47</v>
       </c>
@@ -6470,7 +6479,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <v>44958</v>
       </c>
@@ -6494,7 +6503,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40">
         <v>44986</v>
       </c>
@@ -6518,7 +6527,7 @@
         <v>45002</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <v>45017</v>
       </c>
@@ -6542,7 +6551,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <v>45047</v>
       </c>
@@ -6566,7 +6575,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40"/>
       <c r="B26" s="20" t="s">
         <v>53</v>
@@ -6588,7 +6597,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <v>45100</v>
       </c>
@@ -6612,7 +6621,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40"/>
       <c r="B28" s="20" t="s">
         <v>77</v>
@@ -6634,9 +6643,13 @@
         <v>78</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A29" s="40"/>
-      <c r="B29" s="20"/>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="40">
+        <v>45145</v>
+      </c>
+      <c r="B29" s="20" t="s">
+        <v>79</v>
+      </c>
       <c r="C29" s="13"/>
       <c r="D29" s="39"/>
       <c r="E29" s="9"/>
@@ -6645,12 +6658,16 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H29" s="39"/>
+      <c r="H29" s="39">
+        <v>7</v>
+      </c>
       <c r="I29" s="9"/>
       <c r="J29" s="11"/>
-      <c r="K29" s="20"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K29" s="20" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40"/>
       <c r="B30" s="20"/>
       <c r="C30" s="13"/>
@@ -6666,7 +6683,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40"/>
       <c r="B31" s="20"/>
       <c r="C31" s="13"/>
@@ -6682,7 +6699,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40"/>
       <c r="B32" s="20"/>
       <c r="C32" s="13"/>
@@ -6698,7 +6715,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40"/>
       <c r="B33" s="20"/>
       <c r="C33" s="13"/>
@@ -6714,7 +6731,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40"/>
       <c r="B34" s="20"/>
       <c r="C34" s="13"/>
@@ -6730,7 +6747,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40"/>
       <c r="B35" s="20"/>
       <c r="C35" s="13"/>
@@ -6746,7 +6763,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40"/>
       <c r="B36" s="20"/>
       <c r="C36" s="13"/>
@@ -6762,7 +6779,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40"/>
       <c r="B37" s="20"/>
       <c r="C37" s="13"/>
@@ -6778,7 +6795,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40"/>
       <c r="B38" s="20"/>
       <c r="C38" s="13"/>
@@ -6794,7 +6811,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40"/>
       <c r="B39" s="20"/>
       <c r="C39" s="13"/>
@@ -6810,7 +6827,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40"/>
       <c r="B40" s="20"/>
       <c r="C40" s="13"/>
@@ -6826,7 +6843,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40"/>
       <c r="B41" s="20"/>
       <c r="C41" s="13"/>
@@ -6842,7 +6859,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40"/>
       <c r="B42" s="20"/>
       <c r="C42" s="13"/>
@@ -6858,7 +6875,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40"/>
       <c r="B43" s="20"/>
       <c r="C43" s="13"/>
@@ -6874,7 +6891,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40"/>
       <c r="B44" s="20"/>
       <c r="C44" s="13"/>
@@ -6890,7 +6907,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40"/>
       <c r="B45" s="20"/>
       <c r="C45" s="13"/>
@@ -6906,7 +6923,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40"/>
       <c r="B46" s="20"/>
       <c r="C46" s="13"/>
@@ -6922,7 +6939,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40"/>
       <c r="B47" s="20"/>
       <c r="C47" s="13"/>
@@ -6938,7 +6955,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40"/>
       <c r="B48" s="20"/>
       <c r="C48" s="13"/>
@@ -6954,7 +6971,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40"/>
       <c r="B49" s="20"/>
       <c r="C49" s="13"/>
@@ -6970,7 +6987,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40"/>
       <c r="B50" s="20"/>
       <c r="C50" s="13"/>
@@ -6986,7 +7003,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40"/>
       <c r="B51" s="20"/>
       <c r="C51" s="13"/>
@@ -7002,7 +7019,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40"/>
       <c r="B52" s="20"/>
       <c r="C52" s="13"/>
@@ -7018,7 +7035,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40"/>
       <c r="B53" s="20"/>
       <c r="C53" s="13"/>
@@ -7034,7 +7051,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40"/>
       <c r="B54" s="20"/>
       <c r="C54" s="13"/>
@@ -7050,7 +7067,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40"/>
       <c r="B55" s="20"/>
       <c r="C55" s="13"/>
@@ -7066,7 +7083,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40"/>
       <c r="B56" s="20"/>
       <c r="C56" s="13"/>
@@ -7082,7 +7099,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40"/>
       <c r="B57" s="20"/>
       <c r="C57" s="13"/>
@@ -7098,7 +7115,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40"/>
       <c r="B58" s="20"/>
       <c r="C58" s="13"/>
@@ -7114,7 +7131,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40"/>
       <c r="B59" s="20"/>
       <c r="C59" s="13"/>
@@ -7130,7 +7147,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40"/>
       <c r="B60" s="20"/>
       <c r="C60" s="13"/>
@@ -7146,7 +7163,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40"/>
       <c r="B61" s="20"/>
       <c r="C61" s="13"/>
@@ -7162,7 +7179,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40"/>
       <c r="B62" s="20"/>
       <c r="C62" s="13"/>
@@ -7178,7 +7195,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40"/>
       <c r="B63" s="20"/>
       <c r="C63" s="13"/>
@@ -7194,7 +7211,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40"/>
       <c r="B64" s="20"/>
       <c r="C64" s="13"/>
@@ -7210,7 +7227,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40"/>
       <c r="B65" s="20"/>
       <c r="C65" s="13"/>
@@ -7226,7 +7243,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40"/>
       <c r="B66" s="20"/>
       <c r="C66" s="13"/>
@@ -7242,7 +7259,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40"/>
       <c r="B67" s="20"/>
       <c r="C67" s="13"/>
@@ -7258,7 +7275,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40"/>
       <c r="B68" s="20"/>
       <c r="C68" s="13"/>
@@ -7274,7 +7291,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40"/>
       <c r="B69" s="20"/>
       <c r="C69" s="13"/>
@@ -7290,7 +7307,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40"/>
       <c r="B70" s="20"/>
       <c r="C70" s="13"/>
@@ -7306,7 +7323,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40"/>
       <c r="B71" s="20"/>
       <c r="C71" s="13"/>
@@ -7322,7 +7339,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40"/>
       <c r="B72" s="20"/>
       <c r="C72" s="13"/>
@@ -7338,7 +7355,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40"/>
       <c r="B73" s="20"/>
       <c r="C73" s="13"/>
@@ -7354,7 +7371,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40"/>
       <c r="B74" s="20"/>
       <c r="C74" s="13"/>
@@ -7370,7 +7387,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40"/>
       <c r="B75" s="20"/>
       <c r="C75" s="13"/>
@@ -7386,7 +7403,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40"/>
       <c r="B76" s="20"/>
       <c r="C76" s="13"/>
@@ -7402,7 +7419,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40"/>
       <c r="B77" s="20"/>
       <c r="C77" s="13"/>
@@ -7418,7 +7435,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40"/>
       <c r="B78" s="20"/>
       <c r="C78" s="13"/>
@@ -7434,7 +7451,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40"/>
       <c r="B79" s="20"/>
       <c r="C79" s="13"/>
@@ -7450,7 +7467,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40"/>
       <c r="B80" s="20"/>
       <c r="C80" s="13"/>
@@ -7466,7 +7483,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40"/>
       <c r="B81" s="20"/>
       <c r="C81" s="13"/>
@@ -7482,7 +7499,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40"/>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
@@ -7498,7 +7515,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40"/>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
@@ -7514,7 +7531,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40"/>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
@@ -7530,7 +7547,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40"/>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
@@ -7546,7 +7563,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40"/>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
@@ -7562,7 +7579,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40"/>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
@@ -7578,7 +7595,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40"/>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -7594,7 +7611,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40"/>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -7610,7 +7627,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40"/>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -7626,7 +7643,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40"/>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -7642,7 +7659,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40"/>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -7658,7 +7675,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40"/>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -7674,7 +7691,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40"/>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -7690,7 +7707,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40"/>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -7706,7 +7723,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40"/>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -7722,7 +7739,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40"/>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -7738,7 +7755,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40"/>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -7754,7 +7771,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40"/>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -7770,7 +7787,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40"/>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -7786,7 +7803,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40"/>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -7802,7 +7819,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40"/>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -7818,7 +7835,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40"/>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -7834,7 +7851,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40"/>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -7850,7 +7867,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40"/>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -7866,7 +7883,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40"/>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -7882,7 +7899,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40"/>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -7898,7 +7915,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40"/>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -7914,7 +7931,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40"/>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -7930,7 +7947,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40"/>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -7946,7 +7963,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40"/>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -7962,7 +7979,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -7978,7 +7995,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40"/>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -7994,7 +8011,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -8010,7 +8027,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40"/>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -8026,7 +8043,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40"/>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -8042,7 +8059,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40"/>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -8058,7 +8075,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40"/>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -8074,7 +8091,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40"/>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -8090,7 +8107,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -8106,7 +8123,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40"/>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -8122,7 +8139,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40"/>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -8138,7 +8155,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40"/>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -8154,7 +8171,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40"/>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -8170,7 +8187,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -8186,7 +8203,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -8202,7 +8219,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -8218,7 +8235,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -8234,7 +8251,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40"/>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -8250,7 +8267,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40"/>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -8266,7 +8283,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40"/>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
@@ -8282,7 +8299,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="41"/>
       <c r="B132" s="15"/>
       <c r="C132" s="42"/>
@@ -8313,10 +8330,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0200-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -8339,7 +8356,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -8347,21 +8364,21 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5546875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="60" t="s">
         <v>33</v>
       </c>
@@ -8374,7 +8391,7 @@
       <c r="K1" s="61"/>
       <c r="L1" s="61"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -8403,7 +8420,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>117.004</v>
       </c>
@@ -8427,17 +8444,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -8458,7 +8475,7 @@
       <c r="K6" s="61"/>
       <c r="L6" s="61"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -8485,7 +8502,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -8511,7 +8528,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -8537,7 +8554,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -8563,7 +8580,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -8589,7 +8606,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -8615,7 +8632,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -8641,7 +8658,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -8667,7 +8684,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -8687,7 +8704,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -8707,7 +8724,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -8727,7 +8744,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -8748,7 +8765,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -8769,7 +8786,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -8790,7 +8807,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -8811,7 +8828,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -8832,7 +8849,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -8853,7 +8870,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -8874,7 +8891,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -8895,7 +8912,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -8916,7 +8933,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -8937,7 +8954,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -8958,7 +8975,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -8979,7 +8996,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -9000,7 +9017,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -9021,7 +9038,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -9042,7 +9059,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -9063,7 +9080,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -9084,7 +9101,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -9105,7 +9122,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -9126,7 +9143,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -9147,7 +9164,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -9156,7 +9173,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -9165,7 +9182,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -9174,7 +9191,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -9183,7 +9200,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -9192,7 +9209,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -9201,7 +9218,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -9210,7 +9227,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -9219,7 +9236,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -9228,7 +9245,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -9237,7 +9254,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -9246,7 +9263,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -9255,7 +9272,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -9264,7 +9281,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -9273,7 +9290,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -9282,7 +9299,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -9291,7 +9308,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -9300,7 +9317,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -9309,7 +9326,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -9318,7 +9335,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -9327,7 +9344,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -9336,7 +9353,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -9345,7 +9362,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -9354,7 +9371,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -9363,7 +9380,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -9372,7 +9389,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -9381,7 +9398,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -9390,7 +9407,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -9399,7 +9416,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -9408,7 +9425,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/NEW HR/DONE/BRIZUELA, LENNIE.xlsx
+++ b/NEW HR/DONE/BRIZUELA, LENNIE.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\DONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="81">
   <si>
     <t>PERIOD</t>
   </si>
@@ -664,15 +664,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -685,11 +676,20 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1386,7 +1386,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1429,7 +1429,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1493,7 +1493,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1553,7 +1553,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1619,7 +1619,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1682,7 +1682,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1780,7 +1780,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1839,7 +1839,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1904,7 +1904,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1947,7 +1947,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2022,7 +2022,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2208,7 +2208,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2274,7 +2274,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2332,7 +2332,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2398,7 +2398,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2454,7 +2454,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2529,7 +2529,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2572,7 +2572,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2638,7 +2638,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2694,7 +2694,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2792,7 +2792,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2855,7 +2855,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3334,7 +3334,7 @@
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="4050" topLeftCell="A78" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="H93" sqref="H93"/>
+      <selection pane="bottomLeft" activeCell="C85" sqref="C85:C86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3364,14 +3364,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="56"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -3382,14 +3382,14 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="57"/>
-      <c r="G3" s="51"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="55"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="59"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -3402,16 +3402,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="51" t="s">
+      <c r="F4" s="55" t="s">
         <v>72</v>
       </c>
-      <c r="G4" s="51"/>
+      <c r="G4" s="55"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="58"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -3437,18 +3437,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53" t="s">
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="59"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3495,7 +3495,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])</f>
-        <v>58.75</v>
+        <v>60</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3505,7 +3505,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table15[[EARNED ]])-SUM(Table15[Absence Undertime  W/ Pay])</f>
-        <v>83.75</v>
+        <v>85</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -5067,13 +5067,15 @@
         <v>45139</v>
       </c>
       <c r="B86" s="20"/>
-      <c r="C86" s="13"/>
+      <c r="C86" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D86" s="39"/>
       <c r="E86" s="9"/>
       <c r="F86" s="20"/>
-      <c r="G86" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G86" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H86" s="39"/>
       <c r="I86" s="9"/>
@@ -5992,17 +5994,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -6040,7 +6042,7 @@
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="4050" topLeftCell="A22" activePane="bottomLeft"/>
       <selection activeCell="B2" sqref="B2:C2"/>
-      <selection pane="bottomLeft" activeCell="A29" sqref="A29"/>
+      <selection pane="bottomLeft" activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6071,14 +6073,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="56"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -6092,14 +6094,14 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="57"/>
-      <c r="G3" s="51"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="55"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="59"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -6110,17 +6112,17 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="51" t="str">
+      <c r="F4" s="55" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F4:G4),"",'2018 LEAVE CREDITS'!F4:G4)</f>
         <v>CTO</v>
       </c>
-      <c r="G4" s="51"/>
+      <c r="G4" s="55"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="58"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -6146,18 +6148,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53" t="s">
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="59"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -6214,7 +6216,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -6669,7 +6671,9 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40"/>
-      <c r="B30" s="20"/>
+      <c r="B30" s="20" t="s">
+        <v>52</v>
+      </c>
       <c r="C30" s="13"/>
       <c r="D30" s="39"/>
       <c r="E30" s="9"/>
@@ -6678,14 +6682,20 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H30" s="39"/>
+      <c r="H30" s="39">
+        <v>1</v>
+      </c>
       <c r="I30" s="9"/>
       <c r="J30" s="11"/>
-      <c r="K30" s="20"/>
+      <c r="K30" s="49">
+        <v>45145</v>
+      </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40"/>
-      <c r="B31" s="20"/>
+      <c r="B31" s="20" t="s">
+        <v>52</v>
+      </c>
       <c r="C31" s="13"/>
       <c r="D31" s="39"/>
       <c r="E31" s="9"/>
@@ -6694,14 +6704,22 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H31" s="39"/>
+      <c r="H31" s="39">
+        <v>1</v>
+      </c>
       <c r="I31" s="9"/>
       <c r="J31" s="11"/>
-      <c r="K31" s="20"/>
+      <c r="K31" s="49">
+        <v>45163</v>
+      </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="40"/>
-      <c r="B32" s="20"/>
+      <c r="A32" s="40">
+        <v>45170</v>
+      </c>
+      <c r="B32" s="20" t="s">
+        <v>52</v>
+      </c>
       <c r="C32" s="13"/>
       <c r="D32" s="39"/>
       <c r="E32" s="9"/>
@@ -6710,10 +6728,14 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H32" s="39"/>
+      <c r="H32" s="39">
+        <v>1</v>
+      </c>
       <c r="I32" s="9"/>
       <c r="J32" s="11"/>
-      <c r="K32" s="20"/>
+      <c r="K32" s="49">
+        <v>45184</v>
+      </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40"/>
